--- a/00.Doc/참고 문서/DB/db,table list.xlsx
+++ b/00.Doc/참고 문서/DB/db,table list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teufe\Documents\GitHub\BigData_VI_T-SA\00.Doc\참고 문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teufe\Documents\GitHub\BigData_VI_T-SA\00.Doc\참고 문서\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F341226-F997-488F-B794-8C8DE49F27E4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76A84DD-BACD-4E01-B7B4-579E30DB8118}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{96681FEB-D2E9-4D00-B4E7-9EA3877DD74E}"/>
+    <workbookView xWindow="7650" yWindow="4215" windowWidth="13530" windowHeight="11385" xr2:uid="{96681FEB-D2E9-4D00-B4E7-9EA3877DD74E}"/>
   </bookViews>
   <sheets>
     <sheet name="dbtable list" sheetId="1" r:id="rId1"/>
@@ -25,20 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>TWITTER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>KEYWORD_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VISUAL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -56,6 +48,74 @@
   </si>
   <si>
     <t>DB_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEYWORD_JSON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEYWORD_J_ENTITIES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEYWORD_J_E_HASHTAGS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEYWORD_J_E_URLS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEYWORD_J_METADATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEYWORD_J_USER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEYWORD_J_U_ENTITIES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEYWORD_J_U_E_URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEYWORD_J_U_E_U_URLS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEYWORD_J_U_E_DESCRIPTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_JSON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_J_ENTITIES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_J_E_URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_J_E_U_URLS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_J_E_DESCRIPTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_J_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_J_S_ENTITIES</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,11 +492,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F185C3-C7F5-40D7-B9BA-81A345B5E708}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -446,46 +506,122 @@
     <col min="3" max="3" width="65.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="C22" t="s">
         <v>3</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/00.Doc/참고 문서/DB/db,table list.xlsx
+++ b/00.Doc/참고 문서/DB/db,table list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teufe\Documents\GitHub\BigData_VI_T-SA\00.Doc\참고 문서\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yunhyuck\Documents\GitHub\BigData_VI_T-SA\00.Doc\참고 문서\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76A84DD-BACD-4E01-B7B4-579E30DB8118}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3768164-FBBF-4EC2-AAF0-ED371292931A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7650" yWindow="4215" windowWidth="13530" windowHeight="11385" xr2:uid="{96681FEB-D2E9-4D00-B4E7-9EA3877DD74E}"/>
+    <workbookView xWindow="2510" yWindow="2360" windowWidth="16200" windowHeight="10060" xr2:uid="{96681FEB-D2E9-4D00-B4E7-9EA3877DD74E}"/>
   </bookViews>
   <sheets>
     <sheet name="dbtable list" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>TWITTER</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,67 +55,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>KEYWORD_J_ENTITIES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KEYWORD_J_E_HASHTAGS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KEYWORD_J_E_URLS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KEYWORD_J_METADATA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KEYWORD_J_USER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KEYWORD_J_U_ENTITIES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KEYWORD_J_U_E_URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KEYWORD_J_U_E_U_URLS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KEYWORD_J_U_E_DESCRIPTION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>USER_JSON</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>USER_J_ENTITIES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_J_E_URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_J_E_U_URLS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_J_E_DESCRIPTION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_J_STATUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_J_S_ENTITIES</t>
+    <t>KEYWORD_HASHTAGS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEYWORD_METADATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEYWORD_USER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,21 +444,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F185C3-C7F5-40D7-B9BA-81A345B5E708}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.08203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.25" customWidth="1"/>
     <col min="3" max="3" width="65.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -514,108 +466,48 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
         <v>2</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C10" t="s">
         <v>3</v>
       </c>
     </row>
